--- a/day20/テスト仕様書.xlsx
+++ b/day20/テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\市川航\Documents\2020_training\day20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F4F22-CDF1-46B7-8EAE-85A71F115DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A7203-795E-4CC1-B5C4-8E384DDDD91A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>最終更新日</t>
     <rPh sb="0" eb="5">
@@ -116,13 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実行ユーザ</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -198,43 +191,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全角文字(あいうえお、カキクケコ)の入力でエラー出力</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクモジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未入力でのエラー出力</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未記入でエラーの出力</t>
-    <rPh sb="0" eb="3">
-      <t>ミキニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全角文字(あいうえお、カキクケコ)の入力でエラー出力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>21文字以上の入力</t>
     <rPh sb="2" eb="4">
       <t>モジ</t>
@@ -248,22 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>21文字以上の入力でエラー出力</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ホームページ画面</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -295,13 +235,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力フォームに全角文字の入力(20文字)</t>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー出力</t>
     <rPh sb="3" eb="5">
       <t>シュツリョク</t>
@@ -356,6 +289,17 @@
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力フォームに全角文字(あいうえお、カキクケコ)の入力(20文字)</t>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー出力</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -400,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -434,6 +378,176 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -443,21 +557,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -756,37 +903,36 @@
     <col min="6" max="6" width="52" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:10">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:10">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:10">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:10">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1"/>
-    <row r="6" spans="2:11" ht="19.5" thickTop="1">
+    <row r="5" spans="2:10" ht="19.5" thickBot="1"/>
+    <row r="6" spans="2:10" ht="20.25" thickTop="1" thickBot="1">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -798,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -809,175 +955,164 @@
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2" t="s">
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="37.5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="F12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B15" s="5"/>
+      <c r="C15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G7:G14"/>
+    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
